--- a/config_Release/head_image_server.xlsx
+++ b/config_Release/head_image_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\头像\欢乐捕鱼头像\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\自定义头像\鲸鱼头像\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,176 +30,169 @@
     <t>vip_permission</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head001.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head002.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head003.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head004.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head005.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head006.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head007.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head008.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head009.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head010.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head011.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head012.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head013.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head014.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head015.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head016.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head017.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head018.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head019.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head020.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head021.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head022.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head023.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head024.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head025.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head001.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head002.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head003.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head004.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head005.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head006.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head007.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head008.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head009.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head010.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head011.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head012.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head013.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head014.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head015.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head016.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head017.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head018.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head019.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head020.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head021.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head022.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head023.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head024.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head025.jpg</t>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head001.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head002.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head003.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head004.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head005.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head006.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head007.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head008.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head009.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head010.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head011.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head012.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head013.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head014.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head015.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head016.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head017.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head018.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head019.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head020.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head021.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head022.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head023.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head024.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head025.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head001.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head002.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head003.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head004.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head005.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head006.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head007.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head008.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head009.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head011.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head012.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head013.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head014.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head015.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head016.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head017.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head018.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head019.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head020.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head022.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head023.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head024.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -234,11 +227,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -255,13 +245,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1110,14 +1099,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B27" r:id="rId2"/>
-    <hyperlink ref="B3:B26" r:id="rId3" display="http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head001.jpg"/>
-    <hyperlink ref="B28:B51" r:id="rId4" display="http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head001.jpg"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/head_image_server.xlsx
+++ b/config_Release/head_image_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\自定义头像\鲸鱼头像\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>vip_permission</t>
   </si>
   <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head001.jpg</t>
@@ -182,13 +179,29 @@
   </si>
   <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
+  </si>
+  <si>
+    <t>vip_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_permission_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_permission__tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +211,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -230,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -248,6 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,564 +562,723 @@
     <col min="4" max="6" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/head_image_server.xlsx
+++ b/config_Release/head_image_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -133,18 +133,12 @@
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head009.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head011.jpg</t>
   </si>
   <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head012.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head013.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head014.jpg</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head016.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head017.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head018.jpg</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head020.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head022.jpg</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
   </si>
   <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head024.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
   </si>
   <si>
     <t>vip_permission</t>
@@ -193,7 +178,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level_permission__tips</t>
+    <t>5级解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级解锁</t>
+  </si>
+  <si>
+    <t>35级解锁</t>
+  </si>
+  <si>
+    <t>45级解锁</t>
+  </si>
+  <si>
+    <t>55级解锁</t>
+  </si>
+  <si>
+    <t>65级解锁</t>
+  </si>
+  <si>
+    <t>75级解锁</t>
+  </si>
+  <si>
+    <t>85级解锁</t>
+  </si>
+  <si>
+    <t>95级解锁</t>
+  </si>
+  <si>
+    <t>10级解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+  </si>
+  <si>
+    <t>50级解锁</t>
+  </si>
+  <si>
+    <t>60级解锁</t>
+  </si>
+  <si>
+    <t>70级解锁</t>
+  </si>
+  <si>
+    <t>80级解锁</t>
+  </si>
+  <si>
+    <t>90级解锁</t>
+  </si>
+  <si>
+    <t>100级解锁</t>
+  </si>
+  <si>
+    <t>Lv5开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv15开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv25开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv35开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv45开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv55开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv65开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv75开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv85开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv95开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv10开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv20开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv30开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv40开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv50开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv60开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv70开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv80开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv90开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv100开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>level_permission_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级解锁</t>
+  </si>
+  <si>
+    <t>20级解锁</t>
+  </si>
+  <si>
+    <t>25级解锁</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head013.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head017.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +346,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -248,10 +384,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -273,9 +410,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,16 +712,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -721,6 +863,7 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -735,6 +878,7 @@
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -749,6 +893,7 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -763,6 +908,7 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -777,6 +923,7 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -791,8 +938,9 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -806,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -820,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -834,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -848,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -862,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -876,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -890,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -904,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -918,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -932,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -946,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -960,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -974,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -988,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1002,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1013,10 +1161,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1027,10 +1181,16 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1041,10 +1201,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1055,236 +1221,345 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>36</v>
+      <c r="B36" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>39</v>
+      <c r="B39" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>43</v>
+      <c r="B43" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>47</v>
+      <c r="B47" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>51</v>
+      <c r="B51" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B36" r:id="rId1"/>
+    <hyperlink ref="B39" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId3"/>
+    <hyperlink ref="B51" r:id="rId4"/>
+    <hyperlink ref="B47" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>